--- a/invoice_12847181.xlsx
+++ b/invoice_12847181.xlsx
@@ -550,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,141 +593,6 @@
         <is>
           <t>Gross_Worth</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>HP Desktop Computer PC J]</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CUSTOM BUILT AMD RYZEN</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fast Dell Optiplex Desktop</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>29.92</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dell Optiplex 790 Computer i7</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>790</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3160</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3792</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Vintage Microsolutions Pentium</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -767,8 +632,10 @@
           <t>Total Net Worth</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>3207.2</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>623,677.00</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -777,8 +644,10 @@
           <t>Total VAT</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>638.1200000000003</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -787,8 +656,10 @@
           <t>Total Gross Worth</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>3845.32</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>686,045.00</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/invoice_12847181.xlsx
+++ b/invoice_12847181.xlsx
@@ -465,7 +465,11 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>03/03/2012</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -473,11 +477,7 @@
           <t>Seller Name</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fitzpatrick and Sons</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -485,11 +485,7 @@
           <t>Seller Address</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>00480 Cook Cove Spencerport, UT 12036</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -511,7 +507,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Duncan PLC</t>
+          <t>Fitzpatrick and Sons Duncan PLC</t>
         </is>
       </c>
     </row>
@@ -523,7 +519,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Unit 8799 Box 0703 DPO AP 81970</t>
+          <t>00480 Cook Cove Unit 8799 Box 0703 Spencerport, UT 12036 DPO AP 81970</t>
         </is>
       </c>
     </row>
@@ -535,7 +531,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>911-82-7132</t>
+          <t>998-99-5253</t>
         </is>
       </c>
     </row>
@@ -550,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +589,141 @@
         <is>
           <t>Gross_Worth</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HP Desktop Computer PC J]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>139.95</v>
+      </c>
+      <c r="E2" t="n">
+        <v>559.8</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>615.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CUSTOM BUILT AMD RYZEN</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4200</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fast Dell Optiplex Desktop PC</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>217</v>
+      </c>
+      <c r="E4" t="n">
+        <v>217</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>238.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dell Optiplex 790 Computer i7</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>159.99</v>
+      </c>
+      <c r="E5" t="n">
+        <v>479.97</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>527.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vintage Microsolutions Pentium</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>390</v>
+      </c>
+      <c r="E6" t="n">
+        <v>780</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +765,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>623,677.00</t>
+          <t>6,236.77</t>
         </is>
       </c>
     </row>
@@ -646,7 +777,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>623.68</t>
         </is>
       </c>
     </row>
@@ -658,7 +789,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>686,045.00</t>
+          <t>6,860.45</t>
         </is>
       </c>
     </row>
